--- a/src/test/resources/dataProvider/WriteRWC.xlsx
+++ b/src/test/resources/dataProvider/WriteRWC.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="534">
   <si>
     <t>MCE Customer ID</t>
   </si>
@@ -1606,6 +1606,39 @@
   </si>
   <si>
     <t>66000</t>
+  </si>
+  <si>
+    <t>11/29/2022</t>
+  </si>
+  <si>
+    <t>3267599</t>
+  </si>
+  <si>
+    <t>198.01</t>
+  </si>
+  <si>
+    <t>124.60</t>
+  </si>
+  <si>
+    <t>1479.65</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2029.76</t>
+  </si>
+  <si>
+    <t>3267600</t>
+  </si>
+  <si>
+    <t>3267601</t>
   </si>
 </sst>
 </file>
@@ -2089,19 +2122,19 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
         <v>453</v>
@@ -2119,13 +2152,13 @@
         <v>397</v>
       </c>
       <c r="K3" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="L3" t="s">
         <v>400</v>
       </c>
       <c r="M3" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="N3" t="s">
         <v>403</v>
@@ -2143,7 +2176,7 @@
         <v>409</v>
       </c>
       <c r="S3" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="T3" t="s">
         <v>412</v>
@@ -2173,13 +2206,13 @@
         <v>425</v>
       </c>
       <c r="AC3" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="AD3" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="AF3" t="s">
         <v>431</v>
@@ -2191,13 +2224,13 @@
         <v>434</v>
       </c>
       <c r="AI3" t="s">
-        <v>423</v>
+        <v>530</v>
       </c>
       <c r="AJ3" t="s">
         <v>437</v>
       </c>
       <c r="AK3" t="s">
-        <v>423</v>
+        <v>530</v>
       </c>
       <c r="AL3" t="s">
         <v>440</v>
@@ -2221,7 +2254,7 @@
         <v>462</v>
       </c>
       <c r="AS3" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2665,6 +2698,13 @@
         <v>45</v>
       </c>
       <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2749,6 +2789,7 @@
         <v>46</v>
       </c>
       <c r="AB3"/>
+      <c r="AC3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3028,7 +3069,7 @@
         <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="Y3" t="s">
         <v>18</v>
@@ -4516,25 +4557,25 @@
         <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
         <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>

--- a/src/test/resources/dataProvider/WriteRWC.xlsx
+++ b/src/test/resources/dataProvider/WriteRWC.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5191" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6225" uniqueCount="538">
   <si>
     <t>MCE Customer ID</t>
   </si>
@@ -1639,6 +1639,18 @@
   </si>
   <si>
     <t>3267601</t>
+  </si>
+  <si>
+    <t>11/30/2022</t>
+  </si>
+  <si>
+    <t>3267615</t>
+  </si>
+  <si>
+    <t>IRP;AC#:21744;FL#:001;FLYR:2023;SUPP#:000</t>
+  </si>
+  <si>
+    <t>nullnull</t>
   </si>
 </sst>
 </file>
@@ -2128,13 +2140,13 @@
         <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F3" t="s">
         <v>453</v>
@@ -2315,7 +2327,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>467</v>
@@ -2324,10 +2336,10 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="F3" t="s">
         <v>423</v>
@@ -2336,22 +2348,22 @@
         <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="I3" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="J3" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
       <c r="K3" t="s">
         <v>467</v>
       </c>
       <c r="L3" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="M3" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2705,6 +2717,27 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2790,6 +2823,8 @@
       </c>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AT3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,7 +3104,7 @@
         <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Y3" t="s">
         <v>18</v>
@@ -4569,13 +4604,13 @@
         <v>423</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H3" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
